--- a/piloto_seguimiento/busqueda_canada.xlsx
+++ b/piloto_seguimiento/busqueda_canada.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>acalabrutinib</t>
   </si>
@@ -59,9 +59,6 @@
     <t>40+mg</t>
   </si>
   <si>
-    <t>ambrisentan</t>
-  </si>
-  <si>
     <t>5+mg</t>
   </si>
   <si>
@@ -129,6 +126,21 @@
   </si>
   <si>
     <t>14+mg</t>
+  </si>
+  <si>
+    <t>afinor</t>
+  </si>
+  <si>
+    <t>calquence</t>
+  </si>
+  <si>
+    <t>gilotrif</t>
+  </si>
+  <si>
+    <t>nexavar</t>
+  </si>
+  <si>
+    <t>xeloda</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -467,7 +479,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -511,35 +523,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,18 +562,18 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,117 +650,194 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>34</v>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
